--- a/xlsx/公司治理_intext.xlsx
+++ b/xlsx/公司治理_intext.xlsx
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD</t>
   </si>
   <si>
-    <t>商業</t>
+    <t>商业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BC%99%E4%BC%81%E4%B8%9A</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E9%AB%94%E5%B7%A5%E6%A5%AD%E6%88%B6</t>
   </si>
   <si>
-    <t>個體工業戶</t>
+    <t>个体工业户</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BA%BA%E7%8B%AC%E8%B5%84%E4%BC%81%E4%B8%9A</t>
@@ -107,31 +107,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%9C%BE%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>公眾有限公司</t>
+    <t>公众有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>無限公司</t>
+    <t>无限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%90%88%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>兩合公司</t>
+    <t>两合公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E7%87%9F%E5%88%A4%E6%96%B7%E6%B3%95%E5%89%87</t>
   </si>
   <si>
-    <t>經營判斷法則</t>
+    <t>经营判断法则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>契約</t>
+    <t>契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BA%8B%E8%AF%89%E8%AE%BC</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>機構</t>
+    <t>机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86</t>
@@ -185,13 +185,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1</t>
   </si>
   <si>
-    <t>股東</t>
+    <t>股东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>管理人員</t>
+    <t>管理人员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B</t>
@@ -203,25 +203,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B1%E5%93%A1</t>
   </si>
   <si>
-    <t>僱員</t>
+    <t>僱员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E6%87%89%E5%95%86</t>
   </si>
   <si>
-    <t>供應商</t>
+    <t>供应商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%A7%E5%AE%A2</t>
   </si>
   <si>
-    <t>顧客</t>
+    <t>顾客</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>銀行</t>
+    <t>银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80</t>
   </si>
   <si>
-    <t>社區</t>
+    <t>社区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A9%E8%A8%88</t>
   </si>
   <si>
-    <t>審計</t>
+    <t>审计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%9A%86%E5%85%AC%E5%8F%B8</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E9%87%91</t>
   </si>
   <si>
-    <t>資金</t>
+    <t>资金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E5%89%87</t>
   </si>
   <si>
-    <t>規則</t>
+    <t>规则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E7%B3%BB</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>美國證券交易委員會</t>
+    <t>美国证券交易委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CEO</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>董事會</t>
+    <t>董事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%BA%E6%9D%83%E4%BA%BA</t>
@@ -305,31 +305,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%9B%8A%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>利益衝突</t>
+    <t>利益冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%8B%99%E5%A0%B1%E8%A1%A8</t>
   </si>
   <si>
-    <t>財務報表</t>
+    <t>财务报表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%88%E7%8E%87%E5%B8%82%E5%A0%B4%E5%81%87%E8%AA%AA</t>
   </si>
   <si>
-    <t>效率市場假說</t>
+    <t>效率市场假说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>證券交易所</t>
+    <t>证券交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E6%9E%84%E6%8A%95%E8%B5%84%E8%80%85</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E8%82%AF%E9%8C%AB%E9%A1%A7%E5%95%8F%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>麥肯錫顧問公司</t>
+    <t>麦肯锡顾问公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%AF%8C%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>財富雜誌</t>
+    <t>财富杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A%E5%91%A8%E5%88%8A</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E8%A8%88</t>
   </si>
   <si>
-    <t>會計</t>
+    <t>会计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%BB%E7%90%86</t>
@@ -389,13 +389,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD%E7%A4%BE%E6%9C%83%E8%B2%AC%E4%BB%BB</t>
   </si>
   <si>
-    <t>企業社會責任</t>
+    <t>企业社会责任</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%89%B2%E9%99%8D%E8%90%BD%E5%82%98</t>
   </si>
   <si>
-    <t>金色降落傘</t>
+    <t>金色降落伞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/OECD</t>
@@ -407,19 +407,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哈佛大學</t>
+    <t>哈佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%AD%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>耶魯大學</t>
+    <t>耶鲁大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%B7%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>賓州大學</t>
+    <t>宾州大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2</t>
@@ -437,19 +437,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>董事長</t>
+    <t>董事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>副董事長</t>
+    <t>副董事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>股東大會</t>
+    <t>股东大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%A7%E8%A1%8C%E8%91%A3%E4%BA%8B</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%9F%B7%E8%A1%8C%E8%91%A3%E4%BA%8B</t>
   </si>
   <si>
-    <t>非執行董事</t>
+    <t>非执行董事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E7%AB%8B%E8%91%A3%E4%BA%8B</t>
@@ -473,25 +473,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E5%AF%9F%E4%BA%BA</t>
   </si>
   <si>
-    <t>監察人</t>
+    <t>监察人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E8%A3%81</t>
   </si>
   <si>
-    <t>總裁</t>
+    <t>总裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%B8%BD%E8%A3%81</t>
   </si>
   <si>
-    <t>副總裁</t>
+    <t>副总裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B6%93%E7%90%86</t>
   </si>
   <si>
-    <t>總經理</t>
+    <t>总经理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E4%BA%8B%E4%BC%9A</t>
@@ -509,31 +509,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>理事長</t>
+    <t>理事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8%E7%A7%98%E6%9B%B8</t>
   </si>
   <si>
-    <t>公司秘書</t>
+    <t>公司秘书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E7%89%8C%E9%95%B7</t>
   </si>
   <si>
-    <t>品牌長</t>
+    <t>品牌长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E6%89%A7%E8%A1%8C%E5%AE%98</t>
@@ -545,13 +545,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%8B%99%E9%95%B7</t>
   </si>
   <si>
-    <t>財務長</t>
+    <t>财务长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>資訊總監</t>
+    <t>资讯总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%85%A8%E4%B8%BB%E7%AE%A1</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E9%95%B7</t>
   </si>
   <si>
-    <t>行銷長</t>
+    <t>行销长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E8%BF%90%E8%90%A5%E5%AE%98</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%84%8F%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>創意總監</t>
+    <t>创意总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E6%8A%80%E6%9C%AF%E5%AE%98</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A9%E8%A8%88%E9%83%A8</t>
   </si>
   <si>
-    <t>審計部</t>
+    <t>审计部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%A6</t>
@@ -677,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共行政學</t>
+    <t>公共行政学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E7%95%A5%E7%AE%A1%E7%90%86</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E8%AE%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>應變管理</t>
+    <t>应变管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Communications_management</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BE%E6%95%88%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>績效管理</t>
+    <t>绩效管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E9%99%A9%E7%AE%A1%E7%90%86</t>
@@ -773,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E5%BB%BA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>營建管理</t>
+    <t>营建管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Line_management</t>
@@ -785,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>行銷管理</t>
+    <t>行销管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Operations_management</t>
@@ -809,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>品質管理</t>
+    <t>品质管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sales_management</t>
@@ -887,13 +887,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E6%A9%9F%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>危機管理</t>
+    <t>危机管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>壓力管理</t>
+    <t>压力管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Resource_management</t>
@@ -905,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>環境資源管理</t>
+    <t>环境资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%BA%90%E7%AE%A1%E7%90%86</t>
@@ -923,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>資訊科技管理</t>
+    <t>资讯科技管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%AE%A1%E7%90%86</t>
@@ -971,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%AE%B6%E6%B4%BE%E9%81%A3</t>
   </si>
   <si>
-    <t>專家派遣</t>
+    <t>专家派遣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E9%83%A8</t>
@@ -983,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9A%8E%E7%AE%A1%E7%90%86%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>高階管理人員</t>
+    <t>高阶管理人员</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adhocracy</t>
@@ -1019,25 +1019,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>目標管理</t>
+    <t>目标管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E9%A2%A8%E6%A0%BC</t>
   </si>
   <si>
-    <t>管理風格</t>
+    <t>管理风格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>宏觀管理</t>
+    <t>宏观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>微觀管理</t>
+    <t>微观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E7%AE%A1%E7%90%86</t>
@@ -1067,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E6%96%B7</t>
   </si>
   <si>
-    <t>決斷</t>
+    <t>决断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B3%E7%AD%96</t>
@@ -1085,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
   </si>
   <si>
-    <t>領導力</t>
+    <t>领导力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E5%BE%B7%E9%B2%81%E5%85%8B</t>
@@ -1115,13 +1115,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E5%AD%B8%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理學學士</t>
+    <t>工商管理学学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理碩士</t>
+    <t>工商管理硕士</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/PhD_in_management</t>
@@ -1175,13 +1175,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>管理主義</t>
+    <t>管理主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E7%99%BC%E5%B1%95%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>組織發展理論</t>
+    <t>组织发展理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C</t>
